--- a/Starship.xlsx
+++ b/Starship.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marco/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marco/Desktop/AdventOfCode2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB8C3D45-D068-3442-97B2-AAA6E651873E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA78C6-58E1-5F4A-8DE9-8E40EF8682D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="840" windowWidth="29120" windowHeight="15280" xr2:uid="{26AF309C-8BEB-0D49-B9EC-A2D09A576FDB}"/>
+    <workbookView xWindow="700" yWindow="840" windowWidth="28100" windowHeight="15280" xr2:uid="{26AF309C-8BEB-0D49-B9EC-A2D09A576FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,95 +594,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776D92C2-8B81-744B-8882-46EE7CFAACBE}">
-  <dimension ref="C1:I6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9">
-      <c r="E1" t="s">
+    <row r="1" spans="1:7">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="3:9">
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
-      <c r="E3" t="s">
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
-      <c r="E4" t="s">
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="17">
-      <c r="D5" s="1" t="s">
+    <row r="5" spans="1:7" ht="17">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>